--- a/scripts/lgb_model/submit.xlsx
+++ b/scripts/lgb_model/submit.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.664917802275167</v>
+        <v>3.47843599319458</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.389573534726649</v>
+        <v>6.812981128692627</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.685343890676939</v>
+        <v>6.178739070892334</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.012468224189618</v>
+        <v>5.788360595703125</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.369955577668915</v>
+        <v>7.588903427124023</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.230150416020098</v>
+        <v>2.659440994262695</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.506034728886071</v>
+        <v>9.084030151367188</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.388277318721561</v>
+        <v>7.052423477172852</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.02754552347637</v>
+        <v>3.550756692886353</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.685343890676939</v>
+        <v>6.196753025054932</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.645902878242578</v>
+        <v>6.220371246337891</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.225470242800156</v>
+        <v>2.353485345840454</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.449488534976965</v>
+        <v>4.127839088439941</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.31555075064222</v>
+        <v>5.513372898101807</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.62688986921527</v>
+        <v>6.273228168487549</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.645902878242578</v>
+        <v>6.238385200500488</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.225470242800156</v>
+        <v>5.60789155960083</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.25355055196762</v>
+        <v>5.60789155960083</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.225470242800156</v>
+        <v>5.60789155960083</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.67988379066284</v>
+        <v>3.622270345687866</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.449488534976965</v>
+        <v>6.771299362182617</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.079472247157611</v>
+        <v>6.163474559783936</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.202061191227831</v>
+        <v>5.780666828155518</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.012468224189618</v>
+        <v>6.196753025054932</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.40723799872339</v>
+        <v>6.771299362182617</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.012468224189618</v>
+        <v>6.33406400680542</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.020156134277179</v>
+        <v>3.316195726394653</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/lgb_model/submit.xlsx
+++ b/scripts/lgb_model/submit.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.47843599319458</v>
+        <v>3.53298544883728</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.812981128692627</v>
+        <v>6.746756553649902</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.178739070892334</v>
+        <v>6.125916481018066</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.788360595703125</v>
+        <v>5.730016708374023</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.588903427124023</v>
+        <v>7.471241474151611</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.659440994262695</v>
+        <v>2.77940034866333</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.084030151367188</v>
+        <v>8.910651206970215</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.052423477172852</v>
+        <v>6.979592800140381</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.550756692886353</v>
+        <v>3.563095569610596</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.196753025054932</v>
+        <v>6.143930435180664</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.220371246337891</v>
+        <v>6.173388004302979</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.353485345840454</v>
+        <v>2.356416702270508</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.127839088439941</v>
+        <v>4.182389259338379</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.513372898101807</v>
+        <v>5.460550308227539</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.273228168487549</v>
+        <v>6.262726783752441</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.238385200500488</v>
+        <v>6.191401958465576</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.60789155960083</v>
+        <v>5.600844860076904</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.60789155960083</v>
+        <v>5.600844860076904</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.60789155960083</v>
+        <v>5.600844860076904</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.622270345687866</v>
+        <v>3.592155456542969</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.771299362182617</v>
+        <v>6.722906112670898</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.163474559783936</v>
+        <v>6.131486415863037</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.780666828155518</v>
+        <v>5.679632186889648</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.196753025054932</v>
+        <v>6.143930435180664</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.771299362182617</v>
+        <v>6.722906112670898</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.33406400680542</v>
+        <v>6.330460548400879</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.316195726394653</v>
+        <v>3.346365690231323</v>
       </c>
     </row>
   </sheetData>
